--- a/chude5_Excel/buoi11/de3.xlsx
+++ b/chude5_Excel/buoi11/de3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\chude5_Excel\buoi11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CCCE0B6-264B-4FCA-A4BB-9EB6C254F227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B63C227-A8F7-460D-B266-8DE710760BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C955A52F-3C11-4994-977E-6D3EF97F9D78}"/>
   </bookViews>
@@ -264,11 +264,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="11"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="11"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -285,6 +285,284 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31F345F-6102-76E6-DA54-D25D9E889281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3714750"/>
+          <a:ext cx="5848350" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Yêu cầu tính:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(0,5đ) Dựa vào 2 ký tự đầu Mã số vé và BẢNG GIÁ để điền vào cột Tuyến bay</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(0,5đ) Dựa vào ký tự cuối của Mã số vé để điền vào cột Hạng giá, biết rằng nếu ký tự cuối là E thì là hạng Phổ thông, B là hạng Thương gia.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(1đ) Dựa vào 2 ký tự đầu Mã số vé và Bảng giá để điền vào cột Giá vé, biết rằng nếu ký tự thứ 4 là 1 thì tính giá 1 chiều, là 2 thì tính giá khứ hồi.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(0,5đ) Tính cột Phụ thu biết rằng nếu hành lý trên 20kg thì nhân 1% Giá vé cho số kg vượt, hành lý dưới 20kg thì miễn Phụ thu. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0,5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>đ) Điền vào bảng thống kê (Bảng 3) số lượt khách đi 1 chiều và số lượt khách đi khứ hồi của từng tuyến bay.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(0,5đ) Tại cột phụ thu, tô màu cho các giá trị &gt; giá trị trung bình.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(0,5đ) Rút trích khách hàng đi Bắc Kinh ra 1 danh sách riêng.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A6ECF9-3695-46FD-B386-6CDAEC1F0E5F}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,9 +873,10 @@
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,7 +914,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -650,7 +929,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -711,14 +990,14 @@
       <c r="G7" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -795,5 +1074,7 @@
     <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/chude5_Excel/buoi11/de3.xlsx
+++ b/chude5_Excel/buoi11/de3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\chude5_Excel\buoi11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B63C227-A8F7-460D-B266-8DE710760BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA56449A-2EA3-4E86-AFA2-6F969F94FB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C955A52F-3C11-4994-977E-6D3EF97F9D78}"/>
   </bookViews>
@@ -297,8 +297,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -316,7 +316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3714750"/>
-          <a:ext cx="5848350" cy="2609850"/>
+          <a:ext cx="7267575" cy="2609850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -351,23 +351,23 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="vi-VN" sz="1100" b="1" u="sng">
+            <a:rPr lang="vi-VN" sz="1400" b="1" u="sng">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Yêu cầu tính:</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
+            <a:latin typeface="+mj-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
@@ -375,23 +375,23 @@
         <a:p>
           <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="vi-VN" sz="1100">
+            <a:rPr lang="vi-VN" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>(0,5đ) Dựa vào 2 ký tự đầu Mã số vé và BẢNG GIÁ để điền vào cột Tuyến bay</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
+            <a:latin typeface="+mj-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
@@ -399,23 +399,23 @@
         <a:p>
           <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="vi-VN" sz="1100">
+            <a:rPr lang="vi-VN" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>(0,5đ) Dựa vào ký tự cuối của Mã số vé để điền vào cột Hạng giá, biết rằng nếu ký tự cuối là E thì là hạng Phổ thông, B là hạng Thương gia.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
+            <a:latin typeface="+mj-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
@@ -423,23 +423,23 @@
         <a:p>
           <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="vi-VN" sz="1100">
+            <a:rPr lang="vi-VN" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>(1đ) Dựa vào 2 ký tự đầu Mã số vé và Bảng giá để điền vào cột Giá vé, biết rằng nếu ký tự thứ 4 là 1 thì tính giá 1 chiều, là 2 thì tính giá khứ hồi.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
+            <a:latin typeface="+mj-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
@@ -447,23 +447,23 @@
         <a:p>
           <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="vi-VN" sz="1100">
+            <a:rPr lang="vi-VN" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>(0,5đ) Tính cột Phụ thu biết rằng nếu hành lý trên 20kg thì nhân 1% Giá vé cho số kg vượt, hành lý dưới 20kg thì miễn Phụ thu. </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
+            <a:latin typeface="+mj-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
@@ -471,47 +471,47 @@
         <a:p>
           <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="vi-VN" sz="1100">
+            <a:rPr lang="vi-VN" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>0,5</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="vi-VN" sz="1100">
+            <a:rPr lang="vi-VN" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>đ) Điền vào bảng thống kê (Bảng 3) số lượt khách đi 1 chiều và số lượt khách đi khứ hồi của từng tuyến bay.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
+            <a:latin typeface="+mj-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
@@ -519,12 +519,12 @@
         <a:p>
           <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
@@ -534,23 +534,23 @@
         <a:p>
           <a:pPr lvl="0"/>
           <a:r>
-            <a:rPr lang="vi-VN" sz="1100">
+            <a:rPr lang="vi-VN" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>(0,5đ) Rút trích khách hàng đi Bắc Kinh ra 1 danh sách riêng.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
+            <a:latin typeface="+mj-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
